--- a/m.xlsx
+++ b/m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbhubaneswar-my.sharepoint.com/personal/da11_iitbbs_ac_in/Documents/Derek/Personal/nirav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{41E758B9-0FD2-4DC9-B1FE-1B417BE14532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5966F3F4-C38F-4609-AC1E-212D0E99C40E}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{41E758B9-0FD2-4DC9-B1FE-1B417BE14532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FEF205-E7F6-463F-97EA-03C69CD59F6E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E6416CD9-D445-4674-AA32-ED7B85B77841}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{E6416CD9-D445-4674-AA32-ED7B85B77841}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD-1 Yearly data pull" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>1 or 0</t>
   </si>
   <si>
-    <t>if Premarket High &gt;= R4 then 1 else 0</t>
-  </si>
-  <si>
     <t>if Premarket Low &lt;= S4 then 1 else 0</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
 else if S4 = H then S4H
 else if R6 = H then R6H
 else if S6 = H then S6H</t>
+  </si>
+  <si>
+    <t>if Premarket High &gt;= R4 then 1 else 0 (is prmarket high for today?)</t>
   </si>
 </sst>
 </file>
@@ -1588,13 +1588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB0ECCA-8B6B-4B73-8E13-EB02A65B8F13}">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="156.08984375" bestFit="1" customWidth="1"/>
@@ -1874,14 +1874,14 @@
     </row>
     <row r="13" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>9</v>
@@ -1889,14 +1889,14 @@
     </row>
     <row r="14" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>9</v>
@@ -1904,78 +1904,78 @@
     </row>
     <row r="15" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D48" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -2004,7 +2004,7 @@
     </row>
     <row r="57" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D57" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2022,14 +2022,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C842572F-205E-4808-A35B-E4CC333E1D99}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.453125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2055,195 +2057,195 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9">
         <v>970075300000</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="10">
         <v>170.83150000000001</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10">
         <v>81.430000000000007</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="25">
         <v>44937</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="10" vm="1">
         <v>95.09</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="10" vm="2">
         <v>95.26</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="10" vm="3">
         <v>90.93</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
       <c r="D16" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
@@ -2251,7 +2253,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
@@ -2259,7 +2261,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="14">
         <f>(B13-B14)*1.1/4+B12</f>
@@ -2267,12 +2269,12 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="14">
         <f>(B13-B14)*1.1/2+B12</f>
@@ -2280,12 +2282,12 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="14">
         <f>(B13/B14)*B12</f>
@@ -2293,12 +2295,12 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="14">
         <f>B12-(B13-B14)*1.1/4</f>
@@ -2306,12 +2308,12 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="14">
         <f>B12-(B13-B14)*1.1/2</f>
@@ -2319,12 +2321,12 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="14">
         <f>(B12-(B21-B12))</f>
@@ -2332,12 +2334,12 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="27" t="b">
         <f>B3&lt;=B21</f>
@@ -2345,12 +2347,12 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="27" t="b">
         <f>B6&gt;=B24</f>
@@ -2358,12 +2360,12 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5"/>
@@ -2372,20 +2374,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="10">
         <v>95.27</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -2393,20 +2395,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="10">
         <v>97.19</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>10</v>
@@ -2414,20 +2416,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="14">
         <v>93.5</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>10</v>
@@ -2435,18 +2437,18 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>10</v>
@@ -2454,18 +2456,18 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="5"/>
       <c r="D32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>10</v>
@@ -2473,18 +2475,18 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="5"/>
       <c r="D33" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>10</v>
@@ -2495,17 +2497,17 @@
         <v>21</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>10</v>
@@ -2513,7 +2515,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="14">
         <f>(B22-B23)*1.1/4+B21</f>
@@ -2521,15 +2523,15 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="14">
         <f>(B22-B23)*1.1/2+B21</f>
@@ -2537,12 +2539,12 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="14">
         <f>(B22/B23)*B21</f>
@@ -2550,12 +2552,12 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="14">
         <f>B21-(B22-B23)*1.1/4</f>
@@ -2563,12 +2565,12 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="14">
         <f>B21-(B22-B23)*1.1/2</f>
@@ -2576,12 +2578,12 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="14">
         <f>(B21-(B37-B21))</f>
@@ -2589,10 +2591,10 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T40" s="24">
         <v>44938</v>
@@ -2600,14 +2602,14 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="29">
         <v>44939</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -2640,12 +2642,12 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -2678,12 +2680,12 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -2716,12 +2718,12 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -2754,12 +2756,12 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
@@ -2792,12 +2794,12 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -2830,12 +2832,12 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -2873,7 +2875,7 @@
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
@@ -2906,377 +2908,377 @@
     </row>
     <row r="51" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="22"/>
       <c r="E51" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="22"/>
       <c r="E52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="G52" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="22"/>
       <c r="E53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="22"/>
       <c r="E54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="22"/>
       <c r="E55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="22"/>
       <c r="E56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="22"/>
       <c r="E57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="22"/>
       <c r="E58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="F59" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>143</v>
       </c>
       <c r="G59" s="39"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="22"/>
       <c r="E60" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="22"/>
       <c r="E61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="22"/>
       <c r="E62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="22"/>
       <c r="E63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="40"/>
       <c r="E64" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>158</v>
       </c>
       <c r="G64" s="41"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="22"/>
       <c r="E65" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="22"/>
       <c r="E66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="F67" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="F67" s="44" t="s">
-        <v>168</v>
       </c>
       <c r="G67" s="44"/>
     </row>
     <row r="68" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G68" s="46"/>
     </row>
     <row r="69" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
       <c r="D69" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="50" t="s">
         <v>172</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>173</v>
       </c>
       <c r="F69" s="51"/>
     </row>
     <row r="70" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
       <c r="D70" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F70" s="51"/>
     </row>
     <row r="71" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
       <c r="D71" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
       <c r="D72" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="56"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="22"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="22"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/m.xlsx
+++ b/m.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbhubaneswar-my.sharepoint.com/personal/da11_iitbbs_ac_in/Documents/Derek/Personal/nirav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{41E758B9-0FD2-4DC9-B1FE-1B417BE14532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FEF205-E7F6-463F-97EA-03C69CD59F6E}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{41E758B9-0FD2-4DC9-B1FE-1B417BE14532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8070BAA-E961-4177-9280-E44235AF5D39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{E6416CD9-D445-4674-AA32-ED7B85B77841}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="37920" xr2:uid="{E6416CD9-D445-4674-AA32-ED7B85B77841}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD-1 Yearly data pull" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="192">
   <si>
     <t>Name of the Variable</t>
   </si>
@@ -96,12 +97,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>https://api.polygon.io/v2/aggs/ticker/AAPL/range/2/minute/2021-07-22/2021-07-22?adjusted=true&amp;sort=asc&amp;limit=120&amp;apiKey=i4FD6ltLyeM_7fLvcb7JtaJpifMG5D6M</t>
   </si>
   <si>
@@ -114,31 +109,16 @@
     <t>adjusted=true - Very important in the URL to account for stock split</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>vw</t>
   </si>
   <si>
     <t>VWAP</t>
@@ -644,12 +624,6 @@
     <t>Highest Volume / Aggregated Volume Before Highest Volume * 100</t>
   </si>
   <si>
-    <t>PDC Retracement</t>
-  </si>
-  <si>
-    <t>Can we do 4 quartile (25,50,75,100) between previous day close and current day high then Flag the current day low price in one of the quartile, refer to below example. If the low price is between 0-25% price then first bucket. If the low price falls between 25 and 50 percentile then second bucket and so forth</t>
-  </si>
-  <si>
     <t>Float</t>
   </si>
   <si>
@@ -709,7 +683,43 @@
 else if S6 = H then S6H</t>
   </si>
   <si>
-    <t>if Premarket High &gt;= R4 then 1 else 0 (is prmarket high for today?)</t>
+    <t>if Premarket High &gt;= R4 then 1 else 0 (next high, today r4?)</t>
+  </si>
+  <si>
+    <t>today_r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> today_r4</t>
+  </si>
+  <si>
+    <t>today_r6</t>
+  </si>
+  <si>
+    <t>today_s3</t>
+  </si>
+  <si>
+    <t>today_s4</t>
+  </si>
+  <si>
+    <t>today_s6</t>
+  </si>
+  <si>
+    <t>next_h</t>
+  </si>
+  <si>
+    <t>100*(today-next_h)/next_h</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>diff percent</t>
+  </si>
+  <si>
+    <t>abs diff percent</t>
+  </si>
+  <si>
+    <t>next_l</t>
   </si>
 </sst>
 </file>
@@ -721,7 +731,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,26 +788,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -823,12 +813,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1026,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,15 +1032,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1064,11 +1040,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1077,42 +1052,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1120,7 +1089,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1145,13 +1115,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6443889</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1586,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB0ECCA-8B6B-4B73-8E13-EB02A65B8F13}">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1605,7 +1575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1625,392 +1595,245 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:32" s="56" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="56" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+    </row>
+    <row r="6" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="17" t="s">
+    </row>
+    <row r="7" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="65" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="64" t="s">
+    </row>
+    <row r="8" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="65" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65" t="s">
+      <c r="F8" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+    <row r="9" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>30</v>
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+    <row r="41" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D41" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="42" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D48" s="57" t="s">
-        <v>46</v>
-      </c>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D57" s="58" t="s">
-        <v>47</v>
+      <c r="D50" s="49" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{C8BDDEE4-D1D4-4A45-9EB9-86C8455D78C4}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{B0947930-0A2C-4CFA-9679-87C46AD74B25}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C8BDDEE4-D1D4-4A45-9EB9-86C8455D78C4}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{B0947930-0A2C-4CFA-9679-87C46AD74B25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -2019,17 +1842,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9389A8-E710-42F4-9EA6-E426845CB2B8}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>125.5210525</v>
+      </c>
+      <c r="C2">
+        <f>100*(B2-$B$8)/$B$8</f>
+        <v>2.3575409769224502</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>2.3575409769224502</v>
+      </c>
+      <c r="F2">
+        <f>100*(B2-$B$9)/$B$9</f>
+        <v>8.5822253460207634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>127.482105</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">100*(B3-$B$8)/$B$8</f>
+        <v>3.9567030905977405</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">ABS(C3)</f>
+        <v>3.9567030905977405</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="2">100*(B3-$B$9)/$B$9</f>
+        <v>10.278637543252605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4">
+        <v>131.09092919658099</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6.8995589958256476</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6.8995589958256476</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>13.400457782509509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>121.59894749999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-0.84078325042811819</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.84078325042811819</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>5.1894009515570927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6">
+        <v>119.637895</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-2.4399453641033966</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.4399453641033966</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>3.4929887543252649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7">
+        <v>116.02907080341799</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-5.3828012693321385</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.3828012693321385</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.37116851506747406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="15">
+        <v>122.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="15">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>180.68</v>
+      </c>
+      <c r="G14">
+        <v>101.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C842572F-205E-4808-A35B-E4CC333E1D99}">
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.453125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" customWidth="1"/>
   </cols>
@@ -2056,316 +2063,316 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>48</v>
+      <c r="A2" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
-        <v>51</v>
+      <c r="A3" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="59" t="s">
-        <v>54</v>
+      <c r="A4" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
-        <v>58</v>
+      <c r="A5" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
-        <v>60</v>
+      <c r="A6" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="9">
         <v>970075300000</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
-        <v>62</v>
+      <c r="A7" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
-        <v>64</v>
+      <c r="A8" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="10">
         <v>170.83150000000001</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="28" t="s">
-        <v>65</v>
+      <c r="D8" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="59" t="s">
-        <v>66</v>
+      <c r="A9" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="10">
         <v>81.430000000000007</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="59" t="s">
-        <v>67</v>
+      <c r="A10" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="19">
         <v>44937</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T11" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
-        <v>70</v>
+      <c r="A12" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="10" vm="1">
         <v>95.09</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="D12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
-        <v>72</v>
+      <c r="A13" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="B13" s="10" vm="2">
         <v>95.26</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="26" t="s">
-        <v>71</v>
+      <c r="D13" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="59" t="s">
-        <v>73</v>
+      <c r="A14" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="B14" s="10" vm="3">
         <v>90.93</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="26" t="s">
-        <v>71</v>
+      <c r="D14" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
-        <v>74</v>
+      <c r="A15" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="26" t="s">
-        <v>71</v>
+      <c r="D15" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
-        <v>75</v>
+      <c r="A16" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="26" t="s">
-        <v>71</v>
+      <c r="D16" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
-        <v>76</v>
+      <c r="A17" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>77</v>
+      <c r="A18" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
-        <v>78</v>
+      <c r="A19" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="14">
         <f>(B13-B14)*1.1/4+B12</f>
         <v>96.280749999999998</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="22" t="s">
-        <v>79</v>
+      <c r="D19" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
-        <v>80</v>
+      <c r="A20" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="14">
         <f>(B13-B14)*1.1/2+B12</f>
         <v>97.471500000000006</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="22" t="s">
-        <v>79</v>
+      <c r="D20" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
-        <v>81</v>
+      <c r="A21" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="14">
         <f>(B13/B14)*B12</f>
         <v>99.61809523809525</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="22" t="s">
-        <v>79</v>
+      <c r="D21" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
-        <v>82</v>
+      <c r="A22" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="14">
         <f>B12-(B13-B14)*1.1/4</f>
         <v>93.899250000000009</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="22" t="s">
-        <v>79</v>
+      <c r="D22" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
-        <v>83</v>
+      <c r="A23" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="B23" s="14">
         <f>B12-(B13-B14)*1.1/2</f>
         <v>92.708500000000001</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="22" t="s">
-        <v>79</v>
+      <c r="D23" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="59" t="s">
-        <v>84</v>
+      <c r="A24" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="B24" s="14">
         <f>(B12-(B21-B12))</f>
         <v>90.561904761904756</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="22" t="s">
-        <v>79</v>
+      <c r="D24" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="27" t="b">
+      <c r="A25" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="21" t="b">
         <f>B3&lt;=B21</f>
         <v>0</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="50" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="27" t="b">
+      <c r="B26" s="21" t="b">
         <f>B6&gt;=B24</f>
         <v>1</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="22" t="s">
-        <v>79</v>
+      <c r="D26" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="59" t="s">
-        <v>87</v>
+      <c r="A27" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5"/>
@@ -2373,922 +2380,911 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="59" t="s">
-        <v>88</v>
+      <c r="A28" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="10">
         <v>95.27</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="59" t="s">
-        <v>91</v>
+      <c r="A29" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="10">
         <v>97.19</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="59" t="s">
-        <v>92</v>
+      <c r="A30" s="50" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="14">
         <v>93.5</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="59" t="s">
-        <v>93</v>
+      <c r="A31" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="59" t="s">
-        <v>94</v>
+      <c r="A32" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="5"/>
       <c r="D32" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
-        <v>95</v>
+      <c r="A33" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="5"/>
       <c r="D33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
         <v>90</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="59" t="s">
-        <v>97</v>
       </c>
       <c r="B35" s="14">
         <f>(B22-B23)*1.1/4+B21</f>
         <v>99.945551488095248</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>98</v>
+      <c r="D35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="59" t="s">
-        <v>99</v>
+      <c r="A36" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="14">
         <f>(B22-B23)*1.1/2+B21</f>
         <v>100.27300773809526</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="22" t="s">
-        <v>79</v>
+      <c r="D36" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="59" t="s">
-        <v>100</v>
+      <c r="A37" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="B37" s="14">
         <f>(B22/B23)*B21</f>
         <v>100.89759223033181</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="22" t="s">
-        <v>79</v>
+      <c r="D37" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
-        <v>101</v>
+      <c r="A38" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="B38" s="14">
         <f>B21-(B22-B23)*1.1/4</f>
         <v>99.290638988095253</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="22" t="s">
-        <v>79</v>
+      <c r="D38" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="59" t="s">
-        <v>102</v>
+      <c r="A39" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="B39" s="14">
         <f>B21-(B22-B23)*1.1/2</f>
         <v>98.963182738095242</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="22" t="s">
-        <v>79</v>
+      <c r="D39" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
-        <v>103</v>
+      <c r="A40" s="50" t="s">
+        <v>96</v>
       </c>
       <c r="B40" s="14">
         <f>(B21-(B37-B21))</f>
         <v>98.338598245858691</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="22" t="s">
-        <v>79</v>
+      <c r="D40" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="S40" t="s">
-        <v>104</v>
-      </c>
-      <c r="T40" s="24">
+        <v>97</v>
+      </c>
+      <c r="T40" s="18">
         <v>44938</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="29">
+      <c r="A41" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="23">
         <v>44939</v>
       </c>
-      <c r="C41" s="30"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
+      <c r="A48" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
     </row>
     <row r="51" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="36" t="s">
-        <v>109</v>
+      <c r="D51" s="16"/>
+      <c r="E51" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="22"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="22"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="22"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="30" t="s">
-        <v>139</v>
+      <c r="A59" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G59" s="39"/>
+      <c r="D59" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="22"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="22"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="41"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="22"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="30" t="s">
-        <v>164</v>
+    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" s="37"/>
+    </row>
+    <row r="68" spans="1:7" s="43" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:7" s="43" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:7" s="43" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G67" s="44"/>
-    </row>
-    <row r="68" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="F70" s="44"/>
+    </row>
+    <row r="71" spans="1:7" s="43" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="45" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G68" s="46"/>
-    </row>
-    <row r="69" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49" t="s">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="51"/>
-    </row>
-    <row r="70" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="51"/>
-    </row>
-    <row r="71" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="53"/>
-    </row>
-    <row r="72" spans="1:7" s="52" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41" t="s">
-        <v>180</v>
+      <c r="D73" s="16"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D28" r:id="rId1" xr:uid="{41DD0474-988F-40A5-A277-1C79ADBD5736}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{5DD7D573-CBE0-4E8D-A0F7-EB875F95A091}"/>
-    <hyperlink ref="D69" r:id="rId3" xr:uid="{35F03F64-1EC6-4649-A760-013F5754ABA2}"/>
-    <hyperlink ref="D70" r:id="rId4" xr:uid="{CACC2B55-D1EC-4121-842B-76B8AB3A10AD}"/>
-    <hyperlink ref="D71" r:id="rId5" xr:uid="{209A29A8-E9BA-4520-BD1D-EE223E6D8C4C}"/>
-    <hyperlink ref="D72" r:id="rId6" xr:uid="{B84F659C-E545-4220-8266-0B1E033296AC}"/>
+    <hyperlink ref="D68" r:id="rId3" xr:uid="{35F03F64-1EC6-4649-A760-013F5754ABA2}"/>
+    <hyperlink ref="D69" r:id="rId4" xr:uid="{CACC2B55-D1EC-4121-842B-76B8AB3A10AD}"/>
+    <hyperlink ref="D70" r:id="rId5" xr:uid="{209A29A8-E9BA-4520-BD1D-EE223E6D8C4C}"/>
+    <hyperlink ref="D71" r:id="rId6" xr:uid="{B84F659C-E545-4220-8266-0B1E033296AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
